--- a/output/1Y_P102_1VAL-D.xlsx
+++ b/output/1Y_P102_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>589.0496000000001</v>
       </c>
-      <c r="G2" s="1">
-        <v>589.0496000000001</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1047</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9765</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1047</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.414</v>
       </c>
+      <c r="E3" s="1">
+        <v>589.0496000000001</v>
+      </c>
       <c r="F3" s="1">
         <v>574.2506</v>
       </c>
-      <c r="G3" s="1">
-        <v>1163.3002</v>
-      </c>
       <c r="H3" s="1">
-        <v>20152.6632</v>
+        <v>10204.518</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1925</v>
+        <v>10204.518</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.9765</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20152.6632</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0103</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E4" s="1">
+        <v>1163.3002</v>
+      </c>
       <c r="F4" s="1">
         <v>546.5257</v>
       </c>
-      <c r="G4" s="1">
-        <v>1709.8259</v>
-      </c>
       <c r="H4" s="1">
-        <v>31123.1061</v>
+        <v>21174.9714</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5456</v>
+        <v>21174.9714</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.1925</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31123.1061</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0322</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.699</v>
       </c>
+      <c r="E5" s="1">
+        <v>1709.8259</v>
+      </c>
       <c r="F5" s="1">
         <v>565.0037</v>
       </c>
-      <c r="G5" s="1">
-        <v>2274.8296</v>
-      </c>
       <c r="H5" s="1">
-        <v>40053.3794</v>
+        <v>30105.2467</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5837</v>
+        <v>30105.2467</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.5456</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40053.3794</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.026</v>
+        <v>-0.0343</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E6" s="1">
+        <v>2274.8296</v>
+      </c>
       <c r="F6" s="1">
         <v>553.7252</v>
       </c>
-      <c r="G6" s="1">
-        <v>2828.5548</v>
-      </c>
       <c r="H6" s="1">
-        <v>50817.2492</v>
+        <v>40869.1333</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6769</v>
+        <v>40869.1333</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.5837</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50817.2492</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0153</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.696</v>
       </c>
+      <c r="E7" s="1">
+        <v>2828.5548</v>
+      </c>
       <c r="F7" s="1">
         <v>534.8738</v>
       </c>
-      <c r="G7" s="1">
-        <v>3363.4285</v>
-      </c>
       <c r="H7" s="1">
-        <v>62556.7437</v>
+        <v>52608.573</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8389</v>
+        <v>52608.573</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.6769</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62556.7437</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0286</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E8" s="1">
+        <v>3363.4285</v>
+      </c>
       <c r="F8" s="1">
         <v>559.5846</v>
       </c>
-      <c r="G8" s="1">
-        <v>3923.0131</v>
-      </c>
       <c r="H8" s="1">
-        <v>69742.14999999999</v>
+        <v>59794.0235</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8434</v>
+        <v>59794.0235</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.8389</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69742.14999999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0388</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.5604</v>
       </c>
+      <c r="E9" s="1">
+        <v>3923.0131</v>
+      </c>
       <c r="F9" s="1">
         <v>569.4631000000001</v>
       </c>
-      <c r="G9" s="1">
-        <v>4492.4762</v>
-      </c>
       <c r="H9" s="1">
-        <v>78480.8639</v>
+        <v>68532.6851</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8076</v>
+        <v>68532.6851</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8434</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>78480.8639</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0158</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.4279</v>
       </c>
+      <c r="E10" s="1">
+        <v>4492.4762</v>
+      </c>
       <c r="F10" s="1">
         <v>573.7926</v>
       </c>
-      <c r="G10" s="1">
-        <v>5066.2688</v>
-      </c>
       <c r="H10" s="1">
-        <v>87836.4354</v>
+        <v>77888.3063</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7646</v>
+        <v>77888.3063</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8076</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>87836.4354</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0073</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.5932</v>
       </c>
+      <c r="E11" s="1">
+        <v>5066.2688</v>
+      </c>
       <c r="F11" s="1">
         <v>568.4014</v>
       </c>
-      <c r="G11" s="1">
-        <v>5634.6702</v>
-      </c>
       <c r="H11" s="1">
-        <v>98617.9985</v>
+        <v>88669.8367</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7473</v>
+        <v>88669.8367</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7646</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98617.9985</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.008</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.2741</v>
       </c>
+      <c r="E12" s="1">
+        <v>5634.6702</v>
+      </c>
       <c r="F12" s="1">
         <v>614.4733</v>
       </c>
-      <c r="G12" s="1">
-        <v>6249.1435</v>
-      </c>
       <c r="H12" s="1">
-        <v>101171.7592</v>
+        <v>91223.6207</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6024</v>
+        <v>91223.6207</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7473</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101171.7592</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.06859999999999999</v>
+        <v>-0.0755</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.0497</v>
       </c>
+      <c r="E13" s="1">
+        <v>6249.1435</v>
+      </c>
       <c r="F13" s="1">
         <v>586.5205999999999</v>
       </c>
-      <c r="G13" s="1">
-        <v>6835.6641</v>
-      </c>
       <c r="H13" s="1">
-        <v>115941.0663</v>
+        <v>105992.9734</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.555</v>
+        <v>105992.9734</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6024</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>115941.0663</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0429</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.4616</v>
       </c>
+      <c r="E14" s="1">
+        <v>6835.6641</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6835.6641</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6249.1435</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118742.3215</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.555</v>
+        <v>118742.3215</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0921</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118742.3215</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118742.3215</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118742.3215</v>
+        <v>108553.8724</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0572</v>
+        <v>0.0237</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.9765</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.0496000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>589.0496000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1047</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9765</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1047</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.414</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>589.0496000000001</v>
       </c>
       <c r="F3" s="1">
         <v>565.4382000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1154.4878</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10204.518</v>
       </c>
       <c r="I3" s="1">
-        <v>19846.5411</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1908</v>
+        <v>10204.518</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9846.5411</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.716</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9846.5411</v>
       </c>
-      <c r="O3" s="1">
-        <v>153.4589</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20153.4589</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0103</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.2974</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1154.4878</v>
       </c>
       <c r="F4" s="1">
         <v>493.6375</v>
       </c>
       <c r="G4" s="1">
-        <v>1648.1253</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21014.5639</v>
       </c>
       <c r="I4" s="1">
-        <v>28878.8234</v>
+        <v>153.4589</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5222</v>
+        <v>21168.0228</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18878.8234</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.3526</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9032.282300000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1121.1766</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31121.1766</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0321</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.699</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1648.1253</v>
       </c>
       <c r="F5" s="1">
         <v>623.6726</v>
       </c>
       <c r="G5" s="1">
-        <v>2271.7979</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>29018.871</v>
       </c>
       <c r="I5" s="1">
-        <v>39917.2055</v>
+        <v>1121.1766</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5708</v>
+        <v>30140.0476</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29917.2055</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1523</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11038.3821</v>
       </c>
-      <c r="O5" s="1">
-        <v>82.7945</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40082.7945</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0253</v>
+        <v>-0.033</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.0595</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2271.7979</v>
       </c>
       <c r="F6" s="1">
         <v>511.2677</v>
       </c>
       <c r="G6" s="1">
-        <v>2783.0656</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40814.6667</v>
       </c>
       <c r="I6" s="1">
-        <v>49150.4446</v>
+        <v>82.7945</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6605</v>
+        <v>40897.4612</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39150.4446</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.2332</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9233.239100000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>849.5554</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50849.5554</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0153</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.696</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2783.0656</v>
       </c>
       <c r="F7" s="1">
         <v>442.8969</v>
       </c>
       <c r="G7" s="1">
-        <v>3225.9625</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51762.5154</v>
       </c>
       <c r="I7" s="1">
-        <v>57430.8458</v>
+        <v>849.5554</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8027</v>
+        <v>52612.0709</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47430.8458</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0427</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8280.4013</v>
       </c>
-      <c r="O7" s="1">
-        <v>2569.1542</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62569.1542</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0283</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.8704</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3225.9625</v>
       </c>
       <c r="F8" s="1">
         <v>703.3505</v>
       </c>
       <c r="G8" s="1">
-        <v>3929.313</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>69854.1479</v>
+        <v>57350.1944</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>2569.1542</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8148</v>
+        <v>59919.3485</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.5991</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12569.1542</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69854.1479</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0374</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.5604</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3929.313</v>
       </c>
       <c r="F9" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4498.7761</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>78590.91959999999</v>
+        <v>68642.74069999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.7826</v>
+        <v>68642.74069999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8148</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>78590.91959999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0158</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.4279</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4498.7761</v>
       </c>
       <c r="F10" s="1">
         <v>573.7926</v>
       </c>
       <c r="G10" s="1">
-        <v>5072.5687</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>87945.6602</v>
+        <v>77997.531</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7425</v>
+        <v>77997.531</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7826</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>87945.6602</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0073</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.5932</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5072.5687</v>
       </c>
       <c r="F11" s="1">
         <v>568.4014</v>
       </c>
       <c r="G11" s="1">
-        <v>5640.9701</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>98728.2595</v>
+        <v>88780.0977</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7274</v>
+        <v>88780.0977</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7425</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98728.2595</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.008</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.2741</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5640.9701</v>
       </c>
       <c r="F12" s="1">
         <v>614.4733</v>
       </c>
       <c r="G12" s="1">
-        <v>6255.4435</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101273.7529</v>
+        <v>91325.61440000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5847</v>
+        <v>91325.61440000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7274</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101273.7529</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.06859999999999999</v>
+        <v>-0.0755</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.0497</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6255.4435</v>
       </c>
       <c r="F13" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6841.964</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>116047.9204</v>
+        <v>106099.8275</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5388</v>
+        <v>106099.8275</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5847</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>116047.9204</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0429</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.4616</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6841.964</v>
       </c>
       <c r="F14" s="1">
         <v>-6841.964</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118851.7573</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5388</v>
+        <v>118851.7573</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0773</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118851.7573</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118851.7573</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>118851.7573</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0571</v>
+        <v>0.0237</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.9765</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.0496000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>589.0496000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1047</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9765</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1047</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.414</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>589.0496000000001</v>
       </c>
       <c r="F3" s="1">
         <v>568.3244</v>
       </c>
       <c r="G3" s="1">
-        <v>1157.374</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10204.518</v>
       </c>
       <c r="I3" s="1">
-        <v>19896.8017</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1913</v>
+        <v>10204.518</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9896.8017</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.8013</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9896.8017</v>
       </c>
-      <c r="O3" s="1">
-        <v>103.1983</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20153.1983</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0103</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.2974</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1157.374</v>
       </c>
       <c r="F4" s="1">
         <v>499.0056</v>
       </c>
       <c r="G4" s="1">
-        <v>1656.3796</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21067.1003</v>
       </c>
       <c r="I4" s="1">
-        <v>29027.307</v>
+        <v>103.1983</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5245</v>
+        <v>21170.2986</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19027.307</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.4401</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9130.5054</v>
       </c>
-      <c r="O4" s="1">
-        <v>972.693</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31122.943</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0322</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.699</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1656.3796</v>
       </c>
       <c r="F5" s="1">
         <v>619.9612</v>
       </c>
       <c r="G5" s="1">
-        <v>2276.3408</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40079.9877</v>
+        <v>29164.2072</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>972.693</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5721</v>
+        <v>30136.9002</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1118</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10972.693</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40079.9877</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0254</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.0595</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2276.3408</v>
       </c>
       <c r="F6" s="1">
         <v>534.6950000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2811.0358</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40896.2835</v>
       </c>
       <c r="I6" s="1">
-        <v>49656.3236</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6648</v>
+        <v>40896.2835</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39656.3236</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.4211</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9656.3236</v>
       </c>
-      <c r="O6" s="1">
-        <v>343.6764</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50846.1826</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0153</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.696</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2811.0358</v>
       </c>
       <c r="F7" s="1">
         <v>455.5212</v>
       </c>
       <c r="G7" s="1">
-        <v>3266.5569</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52282.7352</v>
       </c>
       <c r="I7" s="1">
-        <v>58172.7472</v>
+        <v>343.6764</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8086</v>
+        <v>52626.4116</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48172.7472</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.137</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8516.4236</v>
       </c>
-      <c r="O7" s="1">
-        <v>1827.2528</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62582.2716</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0285</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.8704</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3266.5569</v>
       </c>
       <c r="F8" s="1">
         <v>661.8348</v>
       </c>
       <c r="G8" s="1">
-        <v>3928.3917</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>69837.7696</v>
+        <v>58071.8689</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1827.2528</v>
       </c>
       <c r="J8" s="1">
-        <v>17.819</v>
+        <v>59899.1217</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.368</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11827.2528</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69837.7696</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0378</v>
+        <v>-0.0435</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.5604</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3928.3917</v>
       </c>
       <c r="F9" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4497.8548</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>78574.8253</v>
+        <v>68626.6465</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.7863</v>
+        <v>68626.6465</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.819</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>78574.8253</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0158</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.4279</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4497.8548</v>
       </c>
       <c r="F10" s="1">
         <v>573.7926</v>
       </c>
       <c r="G10" s="1">
-        <v>5071.6474</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>87929.6874</v>
+        <v>77981.5583</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7457</v>
+        <v>77981.5583</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7863</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>87929.6874</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0073</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.5932</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5071.6474</v>
       </c>
       <c r="F11" s="1">
         <v>568.4014</v>
       </c>
       <c r="G11" s="1">
-        <v>5640.0489</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>98712.1352</v>
+        <v>88763.9734</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7303</v>
+        <v>88763.9734</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7457</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98712.1352</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.008</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.2741</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5640.0489</v>
       </c>
       <c r="F12" s="1">
         <v>614.4733</v>
       </c>
       <c r="G12" s="1">
-        <v>6254.5222</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>101258.8375</v>
+        <v>91310.6991</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5873</v>
+        <v>91310.6991</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7303</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101258.8375</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.06859999999999999</v>
+        <v>-0.0755</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.0497</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6254.5222</v>
       </c>
       <c r="F13" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6841.0428</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>116032.2943</v>
+        <v>106084.2014</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5412</v>
+        <v>106084.2014</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5873</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>116032.2943</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0429</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.4616</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6841.0428</v>
       </c>
       <c r="F14" s="1">
         <v>-6841.0428</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118835.7536</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5412</v>
+        <v>118835.7536</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0794</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118835.7536</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118835.7536</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>118835.7536</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0571</v>
+        <v>0.0237</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.9765</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.0496000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>589.0496000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1047</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9765</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1047</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.414</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>589.0496000000001</v>
       </c>
       <c r="F3" s="1">
         <v>571.2107</v>
       </c>
       <c r="G3" s="1">
-        <v>1160.2602</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10204.518</v>
       </c>
       <c r="I3" s="1">
-        <v>19947.0623</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1919</v>
+        <v>10204.518</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9947.0623</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.8866</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9947.0623</v>
       </c>
-      <c r="O3" s="1">
-        <v>52.9377</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20152.9377</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0103</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.2974</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1160.2602</v>
       </c>
       <c r="F4" s="1">
         <v>504.4012</v>
       </c>
       <c r="G4" s="1">
-        <v>1664.6614</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21119.6367</v>
       </c>
       <c r="I4" s="1">
-        <v>29176.2933</v>
+        <v>52.9377</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5269</v>
+        <v>21172.5744</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19176.2933</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.5276</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9229.231</v>
       </c>
-      <c r="O4" s="1">
-        <v>823.7067</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31124.7067</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0322</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.699</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1664.6614</v>
       </c>
       <c r="F5" s="1">
         <v>611.5434</v>
       </c>
       <c r="G5" s="1">
-        <v>2276.2049</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40077.5941</v>
+        <v>29310.027</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>823.7067</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5731</v>
+        <v>30133.7337</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0217</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10823.7067</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40077.5941</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0255</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.0595</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2276.2049</v>
       </c>
       <c r="F6" s="1">
         <v>553.7252</v>
       </c>
       <c r="G6" s="1">
-        <v>2829.93</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50841.9571</v>
+        <v>40893.8411</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6683</v>
+        <v>40893.8411</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.5731</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50841.9571</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0153</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.696</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2829.93</v>
       </c>
       <c r="F7" s="1">
         <v>477.765</v>
       </c>
       <c r="G7" s="1">
-        <v>3307.695</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52634.1518</v>
       </c>
       <c r="I7" s="1">
-        <v>58932.2943</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8167</v>
+        <v>52634.1518</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48932.2943</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.291</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8932.2943</v>
       </c>
-      <c r="O7" s="1">
-        <v>1067.7057</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62587.8563</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0287</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.8704</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3307.695</v>
       </c>
       <c r="F8" s="1">
         <v>619.3317</v>
       </c>
       <c r="G8" s="1">
-        <v>3927.0268</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>69813.5036</v>
+        <v>58803.2099</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1067.7057</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8252</v>
+        <v>59870.9156</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.1395</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11067.7057</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69813.5036</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0382</v>
+        <v>-0.0441</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.5604</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3927.0268</v>
       </c>
       <c r="F9" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4496.4899</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>78550.9801</v>
+        <v>68602.8012</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.7917</v>
+        <v>68602.8012</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8252</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>78550.9801</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0158</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.4279</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4496.4899</v>
       </c>
       <c r="F10" s="1">
         <v>573.7926</v>
       </c>
       <c r="G10" s="1">
-        <v>5070.2825</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>87906.02220000001</v>
+        <v>77957.8931</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7505</v>
+        <v>77957.8931</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7917</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>87906.02220000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0073</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.5932</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5070.2825</v>
       </c>
       <c r="F11" s="1">
         <v>568.4014</v>
       </c>
       <c r="G11" s="1">
-        <v>5638.6839</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>98688.2455</v>
+        <v>88740.0837</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7346</v>
+        <v>88740.0837</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7505</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98688.2455</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.008</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.2741</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5638.6839</v>
       </c>
       <c r="F12" s="1">
         <v>614.4733</v>
       </c>
       <c r="G12" s="1">
-        <v>6253.1572</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101236.7391</v>
+        <v>91288.60060000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5911</v>
+        <v>91288.60060000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7346</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101236.7391</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.06859999999999999</v>
+        <v>-0.0755</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.0497</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6253.1572</v>
       </c>
       <c r="F13" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6839.6778</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>116009.1428</v>
+        <v>106061.0498</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5447</v>
+        <v>106061.0498</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5911</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>116009.1428</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0429</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.4616</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6839.6778</v>
       </c>
       <c r="F14" s="1">
         <v>-6839.6778</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118812.0427</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5447</v>
+        <v>118812.0427</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0826</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118812.0427</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118812.0427</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>118812.0427</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0571</v>
+        <v>0.0237</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.9765</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.0496000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>589.0496000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1047</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9765</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1047</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.414</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>589.0496000000001</v>
       </c>
       <c r="F3" s="1">
         <v>574.0969</v>
       </c>
       <c r="G3" s="1">
-        <v>1163.1464</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10204.518</v>
       </c>
       <c r="I3" s="1">
-        <v>19997.3229</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.1924</v>
+        <v>10204.518</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9997.322899999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.972</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9997.322899999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>2.6771</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20152.6771</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0103</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.2974</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1163.1464</v>
       </c>
       <c r="F4" s="1">
         <v>509.8243</v>
       </c>
       <c r="G4" s="1">
-        <v>1672.9707</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21172.1731</v>
       </c>
       <c r="I4" s="1">
-        <v>29325.7822</v>
+        <v>2.6771</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5292</v>
+        <v>21174.8502</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19325.7822</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.6151</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9328.459199999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>674.2178</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31126.4678</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0323</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.699</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1672.9707</v>
       </c>
       <c r="F5" s="1">
         <v>603.0972</v>
       </c>
       <c r="G5" s="1">
-        <v>2276.068</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40075.184</v>
+        <v>29456.3305</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>674.2178</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5742</v>
+        <v>30130.5483</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9322</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10674.2178</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40075.184</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0256</v>
+        <v>-0.0335</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.0595</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2276.068</v>
       </c>
       <c r="F6" s="1">
         <v>553.7252</v>
       </c>
       <c r="G6" s="1">
-        <v>2829.7932</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50839.4979</v>
+        <v>40891.382</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.6691</v>
+        <v>40891.382</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.5742</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50839.4979</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0153</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.696</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2829.7932</v>
       </c>
       <c r="F7" s="1">
         <v>519.5898</v>
       </c>
       <c r="G7" s="1">
-        <v>3349.383</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>52631.606</v>
       </c>
       <c r="I7" s="1">
-        <v>59714.2516</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8284</v>
+        <v>52631.606</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49714.2516</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.5682</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9714.2516</v>
       </c>
-      <c r="O7" s="1">
-        <v>285.7484</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62581.2577</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0286</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.8704</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3349.383</v>
       </c>
       <c r="F8" s="1">
         <v>575.5746</v>
       </c>
       <c r="G8" s="1">
-        <v>3924.9576</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>69776.7187</v>
+        <v>59544.3261</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>285.7484</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8346</v>
+        <v>59830.0745</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9137</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10285.7484</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69776.7187</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0386</v>
+        <v>-0.0447</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.5604</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3924.9576</v>
       </c>
       <c r="F9" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4494.4207</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>78514.83319999999</v>
+        <v>68566.65429999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.7998</v>
+        <v>68566.65429999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8346</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>78514.83319999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0158</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.4279</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4494.4207</v>
       </c>
       <c r="F10" s="1">
         <v>573.7926</v>
       </c>
       <c r="G10" s="1">
-        <v>5068.2133</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>87870.1482</v>
+        <v>77922.0191</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7577</v>
+        <v>77922.0191</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7998</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>87870.1482</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0073</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.5932</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5068.2133</v>
       </c>
       <c r="F11" s="1">
         <v>568.4014</v>
       </c>
       <c r="G11" s="1">
-        <v>5636.6147</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>98652.03109999999</v>
+        <v>88703.86930000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7411</v>
+        <v>88703.86930000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7577</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98652.03109999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.008</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.2741</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5636.6147</v>
       </c>
       <c r="F12" s="1">
         <v>614.4733</v>
       </c>
       <c r="G12" s="1">
-        <v>6251.088</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>101203.24</v>
+        <v>91255.10159999999</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5969</v>
+        <v>91255.10159999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7411</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101203.24</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.06859999999999999</v>
+        <v>-0.0755</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.0497</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6251.088</v>
       </c>
       <c r="F13" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6837.6086</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>115974.0474</v>
+        <v>106025.9545</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.55</v>
+        <v>106025.9545</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5969</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>115974.0474</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0429</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.4616</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6837.6086</v>
       </c>
       <c r="F14" s="1">
         <v>-6837.6086</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118776.0994</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.55</v>
+        <v>118776.0994</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0875</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118776.0994</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118776.0994</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>118776.0994</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0571</v>
+        <v>0.0237</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.4145</v>
@@ -4514,99 +4487,99 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.555</v>
+        <v>16.0921</v>
       </c>
       <c r="D3" s="1">
-        <v>17.5388</v>
+        <v>16.0773</v>
       </c>
       <c r="E3" s="1">
-        <v>17.5412</v>
+        <v>16.0794</v>
       </c>
       <c r="F3" s="1">
-        <v>17.5447</v>
+        <v>16.0826</v>
       </c>
       <c r="G3" s="1">
-        <v>17.55</v>
+        <v>16.0875</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0367</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0764</v>
+        <v>0.0204</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0746</v>
+        <v>0.0225</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.07480000000000001</v>
+        <v>0.0223</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0751</v>
+        <v>0.0219</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0757</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1293</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1186</v>
+        <v>0.1279</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1179</v>
+        <v>0.1266</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1182</v>
+        <v>0.127</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1184</v>
+        <v>0.1273</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1185</v>
+        <v>0.1276</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.1265</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.8159</v>
+        <v>0.0008</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.8045</v>
+        <v>0.0171</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.8047</v>
+        <v>0.0156</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.8063</v>
+        <v>0.0128</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.8100000000000001</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0193</v>
+        <v>-0.1712</v>
       </c>
       <c r="D7" s="3">
         <v>-0.0177</v>
@@ -4623,7 +4596,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
